--- a/기획/웨이브 기회/웨이브 레벨디자인 초안.xlsx
+++ b/기획/웨이브 기회/웨이브 레벨디자인 초안.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2학년 팀플\0414\Vampire\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Vampire_0422\기획\웨이브 기회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4378CAF7-ABAF-40A6-BAF9-CBF07EBEFAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFF55D-EE65-4570-A1E7-FEE77420C061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7482BCC5-F372-4EE0-AA3F-4031553E637B}"/>
   </bookViews>
@@ -543,21 +543,21 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="1.5" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.625" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="44.125" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="2" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -579,26 +579,25 @@
       <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O1" s="1"/>
@@ -620,31 +619,30 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f>SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F16" si="0">SUM(B2:E2)</f>
         <v>15</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <f>SUM(D2:F2)</f>
+        <v>15</v>
+      </c>
       <c r="H2" s="1">
-        <f>SUM(D2:G2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L7" si="1">SUM(G2:K2)</f>
         <v>15</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <f>SUM(H2:L2)</f>
-        <v>15</v>
-      </c>
-      <c r="N2" s="1">
         <v>15</v>
       </c>
     </row>
@@ -665,31 +663,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <f>SUM(D3:F3)</f>
+        <v>18</v>
+      </c>
       <c r="H3" s="1">
-        <f>SUM(D3:G3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
       <c r="M3" s="1">
-        <f>SUM(H3:L3)</f>
-        <v>18</v>
-      </c>
-      <c r="N3" s="1">
         <v>18</v>
       </c>
     </row>
@@ -710,31 +707,30 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <f>SUM(D4:F4)</f>
+        <v>21</v>
+      </c>
       <c r="H4" s="1">
-        <f>SUM(D4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
       <c r="M4" s="1">
-        <f>SUM(H4:L4)</f>
-        <v>21</v>
-      </c>
-      <c r="N4" s="1">
         <v>21</v>
       </c>
     </row>
@@ -755,31 +751,30 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <f>SUM(D5:F5)</f>
+        <v>24</v>
+      </c>
       <c r="H5" s="1">
-        <f>SUM(D5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
       <c r="M5" s="1">
-        <f>SUM(H5:L5)</f>
-        <v>24</v>
-      </c>
-      <c r="N5" s="1">
         <v>24</v>
       </c>
     </row>
@@ -800,10 +795,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
@@ -814,16 +811,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M6" s="1">
-        <f>SUM(H6:L6)</f>
-        <v>30</v>
-      </c>
-      <c r="N6" s="1">
         <v>30</v>
       </c>
     </row>
@@ -845,15 +839,17 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f ca="1">SUM(B7:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
       <c r="H7" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -862,14 +858,11 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="M7" s="1">
-        <f>SUM(H7:L7)</f>
-        <v>34</v>
-      </c>
-      <c r="N7" s="1">
-        <f>SUM(H7:I7)</f>
+        <f>SUM(G7:H7)</f>
         <v>34</v>
       </c>
     </row>
@@ -890,15 +883,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>SUM(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>32</v>
+      </c>
       <c r="H8" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -907,14 +902,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <f t="shared" ref="L8:L11" si="2">SUM(G8:K8)</f>
+        <v>38</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M7:M16" si="0">SUM(H8:L8)</f>
-        <v>38</v>
-      </c>
-      <c r="N8" s="1">
-        <f>SUM(H8:I8)</f>
+        <f>SUM(G8:H8)</f>
         <v>38</v>
       </c>
     </row>
@@ -935,31 +927,30 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(B9:E9)</f>
-        <v>42</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="N9" s="1">
-        <f>SUM(H9:I9)</f>
+      <c r="G9" s="1">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUM(G9:H9)</f>
         <v>42</v>
       </c>
     </row>
@@ -980,31 +971,30 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f>SUM(B10:E10)</f>
-        <v>46</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="N10" s="1">
-        <f>SUM(H10:I10)</f>
+      <c r="G10" s="1">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="M10" s="1">
+        <f>SUM(G10:H10)</f>
         <v>46</v>
       </c>
     </row>
@@ -1025,10 +1015,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>SUM(B11:E11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
@@ -1039,16 +1031,13 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L11" s="1">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="N11" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1069,29 +1058,28 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f>SUM(B12:E12)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>40</v>
+      </c>
       <c r="H12" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="1">
+      <c r="M12" s="1">
         <v>55</v>
       </c>
     </row>
@@ -1112,29 +1100,28 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f>SUM(B13:E13)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>39</v>
+      </c>
       <c r="H13" s="1">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
         <v>3</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="1">
+      <c r="M13" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1155,29 +1142,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f>SUM(B14:E14)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>38</v>
+      </c>
       <c r="H14" s="1">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="1">
+      <c r="M14" s="1">
         <v>65</v>
       </c>
     </row>
@@ -1198,29 +1184,28 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(B15:E15)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>36</v>
+      </c>
       <c r="H15" s="1">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
         <v>6</v>
       </c>
       <c r="K15" s="1">
-        <v>6</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="1">
+      <c r="M15" s="1">
         <v>70</v>
       </c>
     </row>
@@ -1241,10 +1226,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f>SUM(B16:E16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
@@ -1255,16 +1242,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L16" s="1">
+        <f>SUM(G16:K16)</f>
         <v>75</v>
       </c>
       <c r="M16" s="1">
-        <f>SUM(H16:L16)</f>
-        <v>75</v>
-      </c>
-      <c r="N16" s="1">
         <v>75</v>
       </c>
     </row>
